--- a/src/analysis_examples/circadb/results_lomb/cosinor_10409278_nfil3_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10409278_nfil3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.34517503640975744, 0.4903747010066327]</t>
+          <t>[0.34287276815030243, 0.4926769692660877]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>7.659539669191417e-11</v>
+        <v>1.35868205575207e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>7.659539669191417e-11</v>
+        <v>1.35868205575207e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-0.9056843686024632</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4222476282042414, 0.49917725648927996]</t>
+          <t>[0.4222435568461688, 0.49918132784735253]</t>
         </is>
       </c>
       <c r="U2" t="n">
